--- a/excel/finished/6高炉/高炉冷却壁温度日报表.xlsx
+++ b/excel/finished/6高炉/高炉冷却壁温度日报表.xlsx
@@ -1052,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1202,26 +1202,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1268,15 +1253,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,13 +1268,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,36 +1584,36 @@
   <dimension ref="A1:ET33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:150" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
@@ -1761,191 +1744,191 @@
       <c r="ET1" s="15"/>
     </row>
     <row r="2" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="23" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="24" t="s">
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24" t="s">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24" t="s">
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="24"/>
-      <c r="BW2" s="24"/>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24" t="s">
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="22"/>
+      <c r="BW2" s="22"/>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="24"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="24"/>
-      <c r="CI2" s="24"/>
-      <c r="CJ2" s="24"/>
-      <c r="CK2" s="24"/>
-      <c r="CL2" s="24"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="24"/>
-      <c r="CO2" s="24"/>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="25" t="s">
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="22"/>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="25"/>
-      <c r="CU2" s="25"/>
-      <c r="CV2" s="25"/>
-      <c r="CW2" s="25"/>
-      <c r="CX2" s="25"/>
-      <c r="CY2" s="25"/>
-      <c r="CZ2" s="25"/>
-      <c r="DA2" s="25"/>
-      <c r="DB2" s="25"/>
-      <c r="DC2" s="25"/>
-      <c r="DD2" s="25"/>
-      <c r="DE2" s="25"/>
-      <c r="DF2" s="25"/>
-      <c r="DG2" s="25"/>
-      <c r="DH2" s="25"/>
-      <c r="DI2" s="25"/>
-      <c r="DJ2" s="25" t="s">
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="18"/>
+      <c r="CU2" s="18"/>
+      <c r="CV2" s="18"/>
+      <c r="CW2" s="18"/>
+      <c r="CX2" s="18"/>
+      <c r="CY2" s="18"/>
+      <c r="CZ2" s="18"/>
+      <c r="DA2" s="18"/>
+      <c r="DB2" s="18"/>
+      <c r="DC2" s="18"/>
+      <c r="DD2" s="18"/>
+      <c r="DE2" s="18"/>
+      <c r="DF2" s="18"/>
+      <c r="DG2" s="18"/>
+      <c r="DH2" s="18"/>
+      <c r="DI2" s="18"/>
+      <c r="DJ2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="DK2" s="25"/>
-      <c r="DL2" s="25"/>
-      <c r="DM2" s="25"/>
-      <c r="DN2" s="25"/>
-      <c r="DO2" s="25"/>
-      <c r="DP2" s="25"/>
-      <c r="DQ2" s="25"/>
-      <c r="DR2" s="25" t="s">
+      <c r="DK2" s="18"/>
+      <c r="DL2" s="18"/>
+      <c r="DM2" s="18"/>
+      <c r="DN2" s="18"/>
+      <c r="DO2" s="18"/>
+      <c r="DP2" s="18"/>
+      <c r="DQ2" s="18"/>
+      <c r="DR2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="DS2" s="25"/>
-      <c r="DT2" s="25"/>
-      <c r="DU2" s="25"/>
-      <c r="DV2" s="25" t="s">
+      <c r="DS2" s="18"/>
+      <c r="DT2" s="18"/>
+      <c r="DU2" s="18"/>
+      <c r="DV2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="DW2" s="25"/>
-      <c r="DX2" s="25"/>
-      <c r="DY2" s="25"/>
-      <c r="DZ2" s="25" t="s">
+      <c r="DW2" s="18"/>
+      <c r="DX2" s="18"/>
+      <c r="DY2" s="18"/>
+      <c r="DZ2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="EA2" s="25"/>
-      <c r="EB2" s="25"/>
-      <c r="EC2" s="25"/>
-      <c r="ED2" s="25" t="s">
+      <c r="EA2" s="18"/>
+      <c r="EB2" s="18"/>
+      <c r="EC2" s="18"/>
+      <c r="ED2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="EE2" s="25"/>
-      <c r="EF2" s="25"/>
-      <c r="EG2" s="25"/>
-      <c r="EH2" s="25"/>
-      <c r="EI2" s="25"/>
-      <c r="EJ2" s="25"/>
-      <c r="EK2" s="25"/>
-      <c r="EL2" s="25"/>
-      <c r="EM2" s="25"/>
-      <c r="EN2" s="25"/>
-      <c r="EO2" s="25"/>
-      <c r="EP2" s="25"/>
-      <c r="EQ2" s="25"/>
-      <c r="ER2" s="25"/>
-      <c r="ES2" s="25"/>
-      <c r="ET2" s="26"/>
+      <c r="EE2" s="18"/>
+      <c r="EF2" s="18"/>
+      <c r="EG2" s="18"/>
+      <c r="EH2" s="18"/>
+      <c r="EI2" s="18"/>
+      <c r="EJ2" s="18"/>
+      <c r="EK2" s="18"/>
+      <c r="EL2" s="18"/>
+      <c r="EM2" s="18"/>
+      <c r="EN2" s="18"/>
+      <c r="EO2" s="18"/>
+      <c r="EP2" s="18"/>
+      <c r="EQ2" s="18"/>
+      <c r="ER2" s="18"/>
+      <c r="ES2" s="18"/>
+      <c r="ET2" s="19"/>
     </row>
     <row r="3" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
@@ -2395,7 +2378,7 @@
       </c>
     </row>
     <row r="4" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
         <v>166</v>
       </c>
@@ -2844,7 +2827,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:150" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:150" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>167</v>
       </c>
@@ -17724,620 +17707,2413 @@
       <c r="A30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="10"/>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="10"/>
-      <c r="AU30" s="10"/>
-      <c r="AV30" s="10"/>
-      <c r="AW30" s="10"/>
-      <c r="AX30" s="10"/>
-      <c r="AY30" s="10"/>
-      <c r="AZ30" s="10"/>
-      <c r="BA30" s="10"/>
-      <c r="BB30" s="10"/>
-      <c r="BC30" s="10"/>
-      <c r="BD30" s="10"/>
-      <c r="BE30" s="10"/>
-      <c r="BF30" s="10"/>
-      <c r="BG30" s="10"/>
-      <c r="BH30" s="10"/>
-      <c r="BI30" s="10"/>
-      <c r="BJ30" s="10"/>
-      <c r="BK30" s="10"/>
-      <c r="BL30" s="10"/>
-      <c r="BM30" s="10"/>
-      <c r="BN30" s="10"/>
-      <c r="BO30" s="10"/>
-      <c r="BP30" s="10"/>
-      <c r="BQ30" s="10"/>
-      <c r="BR30" s="10"/>
-      <c r="BS30" s="10"/>
-      <c r="BT30" s="10"/>
-      <c r="BU30" s="10"/>
-      <c r="BV30" s="10"/>
-      <c r="BW30" s="10"/>
-      <c r="BX30" s="10"/>
-      <c r="BY30" s="10"/>
-      <c r="BZ30" s="10"/>
-      <c r="CA30" s="10"/>
-      <c r="CB30" s="10"/>
-      <c r="CC30" s="10"/>
-      <c r="CD30" s="10"/>
-      <c r="CE30" s="10"/>
-      <c r="CF30" s="10"/>
-      <c r="CG30" s="10"/>
-      <c r="CH30" s="10"/>
-      <c r="CI30" s="10"/>
-      <c r="CJ30" s="10"/>
-      <c r="CK30" s="10"/>
-      <c r="CL30" s="10"/>
-      <c r="CM30" s="10"/>
-      <c r="CN30" s="10"/>
-      <c r="CO30" s="10"/>
-      <c r="CP30" s="10"/>
-      <c r="CQ30" s="10"/>
-      <c r="CR30" s="10"/>
-      <c r="CS30" s="10"/>
-      <c r="CT30" s="10"/>
-      <c r="CU30" s="10"/>
-      <c r="CV30" s="10"/>
-      <c r="CW30" s="10"/>
-      <c r="CX30" s="10"/>
-      <c r="CY30" s="10"/>
-      <c r="CZ30" s="10"/>
-      <c r="DA30" s="10"/>
-      <c r="DB30" s="10"/>
-      <c r="DC30" s="10"/>
-      <c r="DD30" s="10"/>
-      <c r="DE30" s="10"/>
-      <c r="DF30" s="10"/>
-      <c r="DG30" s="10"/>
-      <c r="DH30" s="10"/>
-      <c r="DI30" s="10"/>
-      <c r="DJ30" s="10"/>
-      <c r="DK30" s="10"/>
-      <c r="DL30" s="10"/>
-      <c r="DM30" s="10"/>
-      <c r="DN30" s="10"/>
-      <c r="DO30" s="10"/>
-      <c r="DP30" s="10"/>
-      <c r="DQ30" s="10"/>
-      <c r="DR30" s="10"/>
-      <c r="DS30" s="10"/>
-      <c r="DT30" s="10"/>
-      <c r="DU30" s="10"/>
-      <c r="DV30" s="10"/>
-      <c r="DW30" s="10"/>
-      <c r="DX30" s="10"/>
-      <c r="DY30" s="10"/>
-      <c r="DZ30" s="10"/>
-      <c r="EA30" s="10"/>
-      <c r="EB30" s="10"/>
-      <c r="EC30" s="10"/>
-      <c r="ED30" s="10"/>
-      <c r="EE30" s="10"/>
-      <c r="EF30" s="10"/>
-      <c r="EG30" s="10"/>
-      <c r="EH30" s="10"/>
-      <c r="EI30" s="10"/>
-      <c r="EJ30" s="10"/>
-      <c r="EK30" s="10"/>
-      <c r="EL30" s="10"/>
-      <c r="EM30" s="10"/>
-      <c r="EN30" s="10"/>
-      <c r="EO30" s="10"/>
-      <c r="EP30" s="10"/>
-      <c r="EQ30" s="10"/>
-      <c r="ER30" s="10"/>
-      <c r="ES30" s="10"/>
-      <c r="ET30" s="18"/>
+      <c r="B30" s="10" t="str">
+        <f>IFERROR(AVERAGE(B6:B13),"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="10" t="str">
+        <f t="shared" ref="C30:BN30" si="0">IFERROR(AVERAGE(C6:C13),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BO30" s="10" t="str">
+        <f t="shared" ref="BO30:DZ30" si="1">IFERROR(AVERAGE(BO6:BO13),"")</f>
+        <v/>
+      </c>
+      <c r="BP30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BQ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BR30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BS30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BT30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BU30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BV30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BW30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BX30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BY30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BZ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CA30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CB30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CC30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CD30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CF30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CG30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CH30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CI30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CJ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CK30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CL30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CM30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CN30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CO30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CP30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CQ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CR30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CS30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CT30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CU30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CV30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CW30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CX30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CY30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CZ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DA30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DB30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DC30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DD30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DE30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DF30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DG30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DH30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DI30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DJ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DK30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DL30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DM30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DN30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DO30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DP30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DQ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DR30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DS30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DT30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DU30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DV30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DW30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DX30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DY30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DZ30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="EA30" s="10" t="str">
+        <f t="shared" ref="EA30:ET30" si="2">IFERROR(AVERAGE(EA6:EA13),"")</f>
+        <v/>
+      </c>
+      <c r="EB30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EC30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ED30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EE30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EF30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EG30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EH30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EI30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EJ30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EK30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EL30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EM30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EN30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EO30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EP30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EQ30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ER30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ES30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ET30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
-      <c r="AP31" s="10"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="10"/>
-      <c r="AS31" s="10"/>
-      <c r="AT31" s="10"/>
-      <c r="AU31" s="10"/>
-      <c r="AV31" s="10"/>
-      <c r="AW31" s="10"/>
-      <c r="AX31" s="10"/>
-      <c r="AY31" s="10"/>
-      <c r="AZ31" s="10"/>
-      <c r="BA31" s="10"/>
-      <c r="BB31" s="10"/>
-      <c r="BC31" s="10"/>
-      <c r="BD31" s="10"/>
-      <c r="BE31" s="10"/>
-      <c r="BF31" s="10"/>
-      <c r="BG31" s="10"/>
-      <c r="BH31" s="10"/>
-      <c r="BI31" s="10"/>
-      <c r="BJ31" s="10"/>
-      <c r="BK31" s="10"/>
-      <c r="BL31" s="10"/>
-      <c r="BM31" s="10"/>
-      <c r="BN31" s="10"/>
-      <c r="BO31" s="10"/>
-      <c r="BP31" s="10"/>
-      <c r="BQ31" s="10"/>
-      <c r="BR31" s="10"/>
-      <c r="BS31" s="10"/>
-      <c r="BT31" s="10"/>
-      <c r="BU31" s="10"/>
-      <c r="BV31" s="10"/>
-      <c r="BW31" s="10"/>
-      <c r="BX31" s="10"/>
-      <c r="BY31" s="10"/>
-      <c r="BZ31" s="10"/>
-      <c r="CA31" s="10"/>
-      <c r="CB31" s="10"/>
-      <c r="CC31" s="10"/>
-      <c r="CD31" s="10"/>
-      <c r="CE31" s="10"/>
-      <c r="CF31" s="10"/>
-      <c r="CG31" s="10"/>
-      <c r="CH31" s="10"/>
-      <c r="CI31" s="10"/>
-      <c r="CJ31" s="10"/>
-      <c r="CK31" s="10"/>
-      <c r="CL31" s="10"/>
-      <c r="CM31" s="10"/>
-      <c r="CN31" s="10"/>
-      <c r="CO31" s="10"/>
-      <c r="CP31" s="10"/>
-      <c r="CQ31" s="10"/>
-      <c r="CR31" s="10"/>
-      <c r="CS31" s="10"/>
-      <c r="CT31" s="10"/>
-      <c r="CU31" s="10"/>
-      <c r="CV31" s="10"/>
-      <c r="CW31" s="10"/>
-      <c r="CX31" s="10"/>
-      <c r="CY31" s="10"/>
-      <c r="CZ31" s="10"/>
-      <c r="DA31" s="10"/>
-      <c r="DB31" s="10"/>
-      <c r="DC31" s="10"/>
-      <c r="DD31" s="10"/>
-      <c r="DE31" s="10"/>
-      <c r="DF31" s="10"/>
-      <c r="DG31" s="10"/>
-      <c r="DH31" s="10"/>
-      <c r="DI31" s="10"/>
-      <c r="DJ31" s="10"/>
-      <c r="DK31" s="10"/>
-      <c r="DL31" s="10"/>
-      <c r="DM31" s="10"/>
-      <c r="DN31" s="10"/>
-      <c r="DO31" s="10"/>
-      <c r="DP31" s="10"/>
-      <c r="DQ31" s="10"/>
-      <c r="DR31" s="10"/>
-      <c r="DS31" s="10"/>
-      <c r="DT31" s="10"/>
-      <c r="DU31" s="10"/>
-      <c r="DV31" s="10"/>
-      <c r="DW31" s="10"/>
-      <c r="DX31" s="10"/>
-      <c r="DY31" s="10"/>
-      <c r="DZ31" s="10"/>
-      <c r="EA31" s="10"/>
-      <c r="EB31" s="10"/>
-      <c r="EC31" s="10"/>
-      <c r="ED31" s="10"/>
-      <c r="EE31" s="10"/>
-      <c r="EF31" s="10"/>
-      <c r="EG31" s="10"/>
-      <c r="EH31" s="10"/>
-      <c r="EI31" s="10"/>
-      <c r="EJ31" s="10"/>
-      <c r="EK31" s="10"/>
-      <c r="EL31" s="10"/>
-      <c r="EM31" s="10"/>
-      <c r="EN31" s="10"/>
-      <c r="EO31" s="10"/>
-      <c r="EP31" s="10"/>
-      <c r="EQ31" s="10"/>
-      <c r="ER31" s="10"/>
-      <c r="ES31" s="10"/>
-      <c r="ET31" s="18"/>
+      <c r="B31" s="10" t="str">
+        <f>IFERROR(AVERAGE(B14:B21),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="10" t="str">
+        <f t="shared" ref="C31:BN31" si="3">IFERROR(AVERAGE(C14:C21),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AN31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AO31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AS31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AT31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AU31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AW31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AX31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AY31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AZ31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BA31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BB31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BC31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BD31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BE31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BG31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BH31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BI31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BJ31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BK31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BL31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BM31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BN31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BO31" s="10" t="str">
+        <f t="shared" ref="BO31:DZ31" si="4">IFERROR(AVERAGE(BO14:BO21),"")</f>
+        <v/>
+      </c>
+      <c r="BP31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BQ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BR31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BS31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BT31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BU31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BV31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BW31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BX31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BY31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BZ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CA31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CB31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CC31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CD31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CE31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CF31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CG31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CH31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CI31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CJ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CK31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CL31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CM31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CN31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CO31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CP31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CQ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CR31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CS31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CT31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CU31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CV31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CW31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CX31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CY31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CZ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DA31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DB31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DC31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DD31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DE31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DF31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DG31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DH31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DI31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DJ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DK31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DL31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DM31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DN31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DO31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DP31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DQ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DR31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DS31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DT31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DU31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DV31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DW31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DX31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DY31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DZ31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="EA31" s="10" t="str">
+        <f t="shared" ref="EA31:ET31" si="5">IFERROR(AVERAGE(EA14:EA21),"")</f>
+        <v/>
+      </c>
+      <c r="EB31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EC31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ED31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EE31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EF31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EG31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EH31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EI31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EJ31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EK31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EL31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EM31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EN31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EO31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EP31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EQ31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ER31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ES31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ET31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="10"/>
-      <c r="AN32" s="10"/>
-      <c r="AO32" s="10"/>
-      <c r="AP32" s="10"/>
-      <c r="AQ32" s="10"/>
-      <c r="AR32" s="10"/>
-      <c r="AS32" s="10"/>
-      <c r="AT32" s="10"/>
-      <c r="AU32" s="10"/>
-      <c r="AV32" s="10"/>
-      <c r="AW32" s="10"/>
-      <c r="AX32" s="10"/>
-      <c r="AY32" s="10"/>
-      <c r="AZ32" s="10"/>
-      <c r="BA32" s="10"/>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="10"/>
-      <c r="BE32" s="10"/>
-      <c r="BF32" s="10"/>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="10"/>
-      <c r="BI32" s="10"/>
-      <c r="BJ32" s="10"/>
-      <c r="BK32" s="10"/>
-      <c r="BL32" s="10"/>
-      <c r="BM32" s="10"/>
-      <c r="BN32" s="10"/>
-      <c r="BO32" s="10"/>
-      <c r="BP32" s="10"/>
-      <c r="BQ32" s="10"/>
-      <c r="BR32" s="10"/>
-      <c r="BS32" s="10"/>
-      <c r="BT32" s="10"/>
-      <c r="BU32" s="10"/>
-      <c r="BV32" s="10"/>
-      <c r="BW32" s="10"/>
-      <c r="BX32" s="10"/>
-      <c r="BY32" s="10"/>
-      <c r="BZ32" s="10"/>
-      <c r="CA32" s="10"/>
-      <c r="CB32" s="10"/>
-      <c r="CC32" s="10"/>
-      <c r="CD32" s="10"/>
-      <c r="CE32" s="10"/>
-      <c r="CF32" s="10"/>
-      <c r="CG32" s="10"/>
-      <c r="CH32" s="10"/>
-      <c r="CI32" s="10"/>
-      <c r="CJ32" s="10"/>
-      <c r="CK32" s="10"/>
-      <c r="CL32" s="10"/>
-      <c r="CM32" s="10"/>
-      <c r="CN32" s="10"/>
-      <c r="CO32" s="10"/>
-      <c r="CP32" s="10"/>
-      <c r="CQ32" s="10"/>
-      <c r="CR32" s="10"/>
-      <c r="CS32" s="10"/>
-      <c r="CT32" s="10"/>
-      <c r="CU32" s="10"/>
-      <c r="CV32" s="10"/>
-      <c r="CW32" s="10"/>
-      <c r="CX32" s="10"/>
-      <c r="CY32" s="10"/>
-      <c r="CZ32" s="10"/>
-      <c r="DA32" s="10"/>
-      <c r="DB32" s="10"/>
-      <c r="DC32" s="10"/>
-      <c r="DD32" s="10"/>
-      <c r="DE32" s="10"/>
-      <c r="DF32" s="10"/>
-      <c r="DG32" s="10"/>
-      <c r="DH32" s="10"/>
-      <c r="DI32" s="10"/>
-      <c r="DJ32" s="10"/>
-      <c r="DK32" s="10"/>
-      <c r="DL32" s="10"/>
-      <c r="DM32" s="10"/>
-      <c r="DN32" s="10"/>
-      <c r="DO32" s="10"/>
-      <c r="DP32" s="10"/>
-      <c r="DQ32" s="10"/>
-      <c r="DR32" s="10"/>
-      <c r="DS32" s="10"/>
-      <c r="DT32" s="10"/>
-      <c r="DU32" s="10"/>
-      <c r="DV32" s="10"/>
-      <c r="DW32" s="10"/>
-      <c r="DX32" s="10"/>
-      <c r="DY32" s="10"/>
-      <c r="DZ32" s="10"/>
-      <c r="EA32" s="10"/>
-      <c r="EB32" s="10"/>
-      <c r="EC32" s="10"/>
-      <c r="ED32" s="10"/>
-      <c r="EE32" s="10"/>
-      <c r="EF32" s="10"/>
-      <c r="EG32" s="10"/>
-      <c r="EH32" s="10"/>
-      <c r="EI32" s="10"/>
-      <c r="EJ32" s="10"/>
-      <c r="EK32" s="10"/>
-      <c r="EL32" s="10"/>
-      <c r="EM32" s="10"/>
-      <c r="EN32" s="10"/>
-      <c r="EO32" s="10"/>
-      <c r="EP32" s="10"/>
-      <c r="EQ32" s="10"/>
-      <c r="ER32" s="10"/>
-      <c r="ES32" s="10"/>
-      <c r="ET32" s="18"/>
+      <c r="B32" s="10" t="str">
+        <f>IFERROR(AVERAGE(B22:B29),"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="10" t="str">
+        <f t="shared" ref="C32:BN32" si="6">IFERROR(AVERAGE(C22:C29),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AO32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BG32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BH32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BI32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BJ32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BK32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BL32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BM32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BN32" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BO32" s="10" t="str">
+        <f t="shared" ref="BO32:DZ32" si="7">IFERROR(AVERAGE(BO22:BO29),"")</f>
+        <v/>
+      </c>
+      <c r="BP32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BQ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BR32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BS32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BT32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BU32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BV32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BW32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BX32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BY32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BZ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CA32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CB32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CC32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CD32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CE32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CF32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CG32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CH32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CI32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CJ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CK32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CL32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CM32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CN32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CO32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CP32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CQ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CR32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CS32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CT32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CU32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CV32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CW32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CX32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CY32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CZ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DA32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DB32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DC32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DD32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DE32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DF32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DG32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DH32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DI32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DJ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DK32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DL32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DM32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DN32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DO32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DP32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DQ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DR32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DS32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DT32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DU32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DV32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DW32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DX32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DY32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DZ32" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="EA32" s="10" t="str">
+        <f t="shared" ref="EA32:ET32" si="8">IFERROR(AVERAGE(EA22:EA29),"")</f>
+        <v/>
+      </c>
+      <c r="EB32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EC32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ED32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EE32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EF32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EG32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EH32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EI32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EJ32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EK32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EL32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EM32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EN32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EO32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EP32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EQ32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ER32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ES32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ET32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
-      <c r="AU33" s="12"/>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="12"/>
-      <c r="AX33" s="12"/>
-      <c r="AY33" s="12"/>
-      <c r="AZ33" s="12"/>
-      <c r="BA33" s="12"/>
-      <c r="BB33" s="12"/>
-      <c r="BC33" s="12"/>
-      <c r="BD33" s="12"/>
-      <c r="BE33" s="12"/>
-      <c r="BF33" s="12"/>
-      <c r="BG33" s="12"/>
-      <c r="BH33" s="12"/>
-      <c r="BI33" s="12"/>
-      <c r="BJ33" s="12"/>
-      <c r="BK33" s="12"/>
-      <c r="BL33" s="12"/>
-      <c r="BM33" s="12"/>
-      <c r="BN33" s="12"/>
-      <c r="BO33" s="12"/>
-      <c r="BP33" s="12"/>
-      <c r="BQ33" s="12"/>
-      <c r="BR33" s="12"/>
-      <c r="BS33" s="12"/>
-      <c r="BT33" s="12"/>
-      <c r="BU33" s="12"/>
-      <c r="BV33" s="12"/>
-      <c r="BW33" s="12"/>
-      <c r="BX33" s="12"/>
-      <c r="BY33" s="12"/>
-      <c r="BZ33" s="12"/>
-      <c r="CA33" s="12"/>
-      <c r="CB33" s="12"/>
-      <c r="CC33" s="12"/>
-      <c r="CD33" s="12"/>
-      <c r="CE33" s="12"/>
-      <c r="CF33" s="12"/>
-      <c r="CG33" s="12"/>
-      <c r="CH33" s="12"/>
-      <c r="CI33" s="12"/>
-      <c r="CJ33" s="12"/>
-      <c r="CK33" s="12"/>
-      <c r="CL33" s="12"/>
-      <c r="CM33" s="12"/>
-      <c r="CN33" s="12"/>
-      <c r="CO33" s="12"/>
-      <c r="CP33" s="12"/>
-      <c r="CQ33" s="12"/>
-      <c r="CR33" s="12"/>
-      <c r="CS33" s="12"/>
-      <c r="CT33" s="12"/>
-      <c r="CU33" s="12"/>
-      <c r="CV33" s="12"/>
-      <c r="CW33" s="12"/>
-      <c r="CX33" s="12"/>
-      <c r="CY33" s="12"/>
-      <c r="CZ33" s="12"/>
-      <c r="DA33" s="12"/>
-      <c r="DB33" s="12"/>
-      <c r="DC33" s="12"/>
-      <c r="DD33" s="12"/>
-      <c r="DE33" s="12"/>
-      <c r="DF33" s="12"/>
-      <c r="DG33" s="12"/>
-      <c r="DH33" s="12"/>
-      <c r="DI33" s="12"/>
-      <c r="DJ33" s="12"/>
-      <c r="DK33" s="12"/>
-      <c r="DL33" s="12"/>
-      <c r="DM33" s="12"/>
-      <c r="DN33" s="12"/>
-      <c r="DO33" s="12"/>
-      <c r="DP33" s="12"/>
-      <c r="DQ33" s="12"/>
-      <c r="DR33" s="12"/>
-      <c r="DS33" s="12"/>
-      <c r="DT33" s="12"/>
-      <c r="DU33" s="12"/>
-      <c r="DV33" s="12"/>
-      <c r="DW33" s="12"/>
-      <c r="DX33" s="12"/>
-      <c r="DY33" s="12"/>
-      <c r="DZ33" s="12"/>
-      <c r="EA33" s="12"/>
-      <c r="EB33" s="12"/>
-      <c r="EC33" s="12"/>
-      <c r="ED33" s="12"/>
-      <c r="EE33" s="12"/>
-      <c r="EF33" s="12"/>
-      <c r="EG33" s="12"/>
-      <c r="EH33" s="12"/>
-      <c r="EI33" s="12"/>
-      <c r="EJ33" s="12"/>
-      <c r="EK33" s="12"/>
-      <c r="EL33" s="12"/>
-      <c r="EM33" s="12"/>
-      <c r="EN33" s="12"/>
-      <c r="EO33" s="12"/>
-      <c r="EP33" s="12"/>
-      <c r="EQ33" s="12"/>
-      <c r="ER33" s="12"/>
-      <c r="ES33" s="12"/>
-      <c r="ET33" s="19"/>
+      <c r="B33" s="12" t="str">
+        <f>IFERROR(AVERAGE(B6:B29),"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="12" t="str">
+        <f t="shared" ref="C33:BN33" si="9">IFERROR(AVERAGE(C6:C29),"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AF33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AI33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AK33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AL33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AM33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AN33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AO33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AR33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AS33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AT33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AU33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AV33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AW33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AX33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AY33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BA33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BB33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BC33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BD33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BE33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BF33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BG33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BH33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BI33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BK33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BL33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BM33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BN33" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BO33" s="12" t="str">
+        <f t="shared" ref="BO33:DZ33" si="10">IFERROR(AVERAGE(BO6:BO29),"")</f>
+        <v/>
+      </c>
+      <c r="BP33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BQ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BR33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BS33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BT33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BU33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BV33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BW33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BX33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BY33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BZ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CA33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CB33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CC33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CD33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CE33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CF33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CG33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CH33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CI33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CJ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CK33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CL33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CM33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CN33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CO33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CP33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CQ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CR33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CS33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CT33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CU33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CV33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CW33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CX33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CY33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CZ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DA33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DB33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DC33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DD33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DE33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DF33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DG33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DH33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DI33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DJ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DK33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DL33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DM33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DN33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DO33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DP33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DQ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DR33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DS33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DT33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DU33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DV33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DW33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DX33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DY33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="DZ33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="EA33" s="12" t="str">
+        <f t="shared" ref="EA33:ET33" si="11">IFERROR(AVERAGE(EA6:EA29),"")</f>
+        <v/>
+      </c>
+      <c r="EB33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EC33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ED33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EE33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EF33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EG33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EH33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EI33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EJ33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EK33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EL33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EM33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EN33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EO33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EP33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="EQ33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ER33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ES33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="ET33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
     <mergeCell ref="ED2:ET2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="CR2:DI2"/>
@@ -18350,11 +20126,6 @@
     <mergeCell ref="AP2:BG2"/>
     <mergeCell ref="BH2:BY2"/>
     <mergeCell ref="BZ2:CQ2"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
